--- a/Experiments/GPU/GPUvsCPU.xlsx
+++ b/Experiments/GPU/GPUvsCPU.xlsx
@@ -16,18 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>inner operations</t>
   </si>
   <si>
-    <t>GPU Time (ms)</t>
+    <t>For each in (640*480), conduction X number of inner operations</t>
   </si>
   <si>
-    <t>CPU Time(ms)</t>
+    <t xml:space="preserve">GPU  </t>
   </si>
   <si>
-    <t>For each in (640*480), conduction X number of inner operations</t>
+    <t xml:space="preserve">CPU  </t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t># iterations</t>
   </si>
 </sst>
 </file>
@@ -95,22 +101,12 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0577655448286822E-2"/>
-          <c:y val="2.8413363844688712E-2"/>
-          <c:w val="0.73742835976775578"/>
-          <c:h val="0.89978466602881924"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -118,14 +114,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU Time (ms)</c:v>
+                  <c:v>GPU  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$63</c:f>
+              <c:f>Sheet1!$F$5:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
@@ -311,10 +310,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$98</c:f>
+              <c:f>Sheet1!$E$5:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>11.070633000000001</c:v>
                 </c:pt>
@@ -491,111 +490,6 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>65.603752</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.003832000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>66.943828999999994</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>67.893883000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>68.873940000000005</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>70.064007000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70.754047</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>71.694100000000006</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>72.824164999999994</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>73.504204000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>74.724273999999994</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>75.514319</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>77.264419000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>77.354423999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>78.174470999999997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>79.584552000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>80.204587000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80.904628000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>82.004690999999994</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>83.984803999999997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83.774792000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84.674842999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>86.194929999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86.694958999999997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87.475003000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88.345052999999993</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89.765135000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90.435171999999994</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91.175214999999994</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92.335280999999995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>94.075380999999993</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>93.935372000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95.035436000000004</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96.165499999999994</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>96.795536999999996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>97.685586999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +497,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -611,197 +505,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU Time(ms)</c:v>
+                  <c:v>CPU  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$5:$I$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$5:$H$63</c:f>
@@ -1000,21 +711,45 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106353792"/>
-        <c:axId val="106355328"/>
+        <c:axId val="47876352"/>
+        <c:axId val="52609408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106353792"/>
+        <c:axId val="47876352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106355328"/>
+        <c:crossAx val="52609408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,611 +757,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106355328"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="106353792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0577655448286822E-2"/>
-          <c:y val="2.8413363844688712E-2"/>
-          <c:w val="0.73742835976775578"/>
-          <c:h val="0.89978466602881924"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPU Time (ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$5:$I$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$E$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
-                <c:pt idx="0">
-                  <c:v>11.070633000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.660667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.690726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.720784</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.910852999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.880908</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.620950000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.471</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.951084000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.401109000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.361165</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.321218999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.581292000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.181325999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.171382000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.401453</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26.461514000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.041547000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.931597</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.961656999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.791703999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.681754999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31.561805</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.821877000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.611922</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.471972000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35.472028000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36.332078000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37.352136999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38.202185</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>39.512259999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40.122295000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40.972344</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41.902397000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43.502488</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43.942514000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44.792561999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45.912626000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>46.682670000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>47.502716999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>48.422769000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50.102865000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>50.54289</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>51.202928999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>52.252988000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>53.433056999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>54.073092000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>55.023147999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56.593237000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>56.853251</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>57.783304999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>58.693356999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>59.573408000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>60.453457999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>61.673527999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>62.493574000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>63.273618999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>64.213672000000003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>65.603752</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.003832000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>66.943828999999994</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>67.893883000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>68.873940000000005</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>70.064007000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70.754047</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>71.694100000000006</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>72.824164999999994</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>73.504204000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>74.724273999999994</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>75.514319</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>77.264419000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>77.354423999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>78.174470999999997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>79.584552000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>80.204587000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80.904628000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>82.004690999999994</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>83.984803999999997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83.774792000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84.674842999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>86.194929999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86.694958999999997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87.475003000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88.345052999999993</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89.765135000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90.435171999999994</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91.175214999999994</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92.335280999999995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>94.075380999999993</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>93.935372000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95.035436000000004</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96.165499999999994</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>96.795536999999996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>97.685586999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="111593344"/>
-        <c:axId val="111594880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="111593344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111594880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="111594880"/>
+        <c:axId val="52609408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111593344"/>
+        <c:crossAx val="47876352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,20 +813,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673769</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>97931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1675,38 +836,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2002,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,28 +1145,36 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>11.070633000000001</v>
       </c>
@@ -2051,7 +1188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>11.660667</v>
       </c>
@@ -2065,7 +1202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>12.690726</v>
       </c>
@@ -2079,7 +1216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>13.720784</v>
       </c>
@@ -2093,7 +1230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>14.910852999999999</v>
       </c>
@@ -2107,7 +1244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>15.880908</v>
       </c>
@@ -2121,7 +1258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>16.620950000000001</v>
       </c>
@@ -2135,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>17.471</v>
       </c>
@@ -2149,7 +1286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>18.951084000000002</v>
       </c>
@@ -2163,7 +1300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>19.401109000000002</v>
       </c>
@@ -2177,7 +1314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>20.361165</v>
       </c>
@@ -2191,7 +1328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>21.321218999999999</v>
       </c>
